--- a/data/trans_orig/P36BPD04_R2_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>66251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50775</v>
+        <v>49998</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89534</v>
+        <v>87291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1328360537778475</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1018065172224384</v>
+        <v>0.1002484613974963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1795198616114316</v>
+        <v>0.1750224314642809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -762,19 +762,19 @@
         <v>100169</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84987</v>
+        <v>85479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116808</v>
+        <v>117606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1607821409205248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1364128572571759</v>
+        <v>0.1372025100496504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1874895904439478</v>
+        <v>0.1887699194359179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -783,19 +783,19 @@
         <v>166420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>142642</v>
+        <v>143837</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193747</v>
+        <v>192490</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1483570901082233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1271598275314237</v>
+        <v>0.1282257188754625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1727181893967363</v>
+        <v>0.1715974771537703</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>432488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409205</v>
+        <v>411448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447964</v>
+        <v>448741</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8671639462221525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8204801383885685</v>
+        <v>0.8249775685357191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8981934827775616</v>
+        <v>0.8997515386025038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>711</v>
@@ -833,19 +833,19 @@
         <v>522843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>506204</v>
+        <v>505406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>538025</v>
+        <v>537533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8392178590794751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8125104095560522</v>
+        <v>0.8112300805640823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8635871427428242</v>
+        <v>0.8627974899503495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1112</v>
@@ -854,19 +854,19 @@
         <v>955331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>928004</v>
+        <v>929261</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>979109</v>
+        <v>977914</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8516429098917769</v>
+        <v>0.8516429098917768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8272818106032637</v>
+        <v>0.8284025228462295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8728401724685761</v>
+        <v>0.8717742811245375</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>144943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121969</v>
+        <v>122003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>174852</v>
+        <v>171837</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1509606732456134</v>
+        <v>0.1509606732456133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1270325270755771</v>
+        <v>0.1270684225686174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.18211195332616</v>
+        <v>0.1789709523599288</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>257</v>
@@ -979,19 +979,19 @@
         <v>168191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148942</v>
+        <v>149424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190150</v>
+        <v>188555</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1508024473747332</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1335440589960783</v>
+        <v>0.1339760336210975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1704915917617731</v>
+        <v>0.1690614642097177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -1000,19 +1000,19 @@
         <v>313134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>280670</v>
+        <v>284189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>345652</v>
+        <v>347117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1508756454945775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1352340280612548</v>
+        <v>0.1369295929790958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1665438679292778</v>
+        <v>0.1672497598076283</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>815194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>785285</v>
+        <v>788300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>838168</v>
+        <v>838134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8490393267543868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8178880466738401</v>
+        <v>0.821029047640071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8729674729244228</v>
+        <v>0.8729315774313826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1349</v>
@@ -1050,19 +1050,19 @@
         <v>947115</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>925156</v>
+        <v>926751</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966364</v>
+        <v>965882</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8491975526252667</v>
+        <v>0.8491975526252666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.829508408238227</v>
+        <v>0.8309385357902822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8664559410039218</v>
+        <v>0.8660239663789028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2126</v>
@@ -1071,19 +1071,19 @@
         <v>1762308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1729790</v>
+        <v>1728325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1794772</v>
+        <v>1791253</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8491243545054226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.833456132070722</v>
+        <v>0.8327502401923716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8647659719387453</v>
+        <v>0.8630704070209042</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>185357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160882</v>
+        <v>158876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>215966</v>
+        <v>213994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1771245922570697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1537368050432017</v>
+        <v>0.15181967681106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2063738306446414</v>
+        <v>0.2044895696787369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>278</v>
@@ -1196,19 +1196,19 @@
         <v>187798</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168350</v>
+        <v>167437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210744</v>
+        <v>210474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.179353461456441</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.160779697629995</v>
+        <v>0.1599083920146402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2012683732506323</v>
+        <v>0.2010102547540814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>460</v>
@@ -1217,19 +1217,19 @@
         <v>373155</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>338406</v>
+        <v>340304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>410823</v>
+        <v>409484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1782393478138862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1616415323878955</v>
+        <v>0.1625481640487831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1962316138488617</v>
+        <v>0.1955923025678704</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>861122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>830513</v>
+        <v>832485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>885597</v>
+        <v>887603</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8228754077429302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7936261693553586</v>
+        <v>0.7955104303212631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8462631949567981</v>
+        <v>0.8481803231889401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1237</v>
@@ -1267,19 +1267,19 @@
         <v>859284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>836338</v>
+        <v>836608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>878732</v>
+        <v>879645</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.820646538543559</v>
+        <v>0.8206465385435591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7987316267493678</v>
+        <v>0.7989897452459183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8392203023700051</v>
+        <v>0.8400916079853598</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2084</v>
@@ -1288,19 +1288,19 @@
         <v>1720406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1682738</v>
+        <v>1684077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1755155</v>
+        <v>1753257</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8217606521861137</v>
+        <v>0.8217606521861138</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8037683861511383</v>
+        <v>0.8044076974321296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8383584676121046</v>
+        <v>0.8374518359512166</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>313703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>283019</v>
+        <v>281431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>349200</v>
+        <v>344747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3214402315954293</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2900000319213696</v>
+        <v>0.2883722721724978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3578129553163577</v>
+        <v>0.3532502728013395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>443</v>
@@ -1413,19 +1413,19 @@
         <v>299411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>274636</v>
+        <v>273481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>327751</v>
+        <v>326116</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3300101925702332</v>
+        <v>0.3300101925702331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3027023693743831</v>
+        <v>0.3014299521227373</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3612457284899937</v>
+        <v>0.3594442081623235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>747</v>
@@ -1434,19 +1434,19 @@
         <v>613114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>579157</v>
+        <v>575968</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>654804</v>
+        <v>656288</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.32556900872251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3075371928666986</v>
+        <v>0.3058439603416106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3477066270653311</v>
+        <v>0.3484946762474576</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>662226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>626729</v>
+        <v>631182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>692910</v>
+        <v>694498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6785597684045707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.642187044683642</v>
+        <v>0.6467497271986605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7099999680786304</v>
+        <v>0.7116277278275023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>875</v>
@@ -1484,19 +1484,19 @@
         <v>607868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>579528</v>
+        <v>581163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>632643</v>
+        <v>633798</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6699898074297669</v>
+        <v>0.6699898074297668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6387542715100066</v>
+        <v>0.6405557918376765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6972976306256172</v>
+        <v>0.6985700478772626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1518</v>
@@ -1505,19 +1505,19 @@
         <v>1270094</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1228404</v>
+        <v>1226920</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1304051</v>
+        <v>1307240</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6744309912774898</v>
+        <v>0.67443099127749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6522933729346687</v>
+        <v>0.6515053237525424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6924628071333013</v>
+        <v>0.6941560396583893</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>710253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>657056</v>
+        <v>659096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>763096</v>
+        <v>762339</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2040205450861707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1887396317174086</v>
+        <v>0.1893254506937033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2191994952665011</v>
+        <v>0.2189821028826427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1127</v>
@@ -1630,19 +1630,19 @@
         <v>755569</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>713394</v>
+        <v>711635</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>800874</v>
+        <v>798019</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2046127605563687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1931913412884002</v>
+        <v>0.1927151913475535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2168814553077058</v>
+        <v>0.2161084056594385</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1800</v>
@@ -1651,19 +1651,19 @@
         <v>1465823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1394257</v>
+        <v>1393805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1537092</v>
+        <v>1536011</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2043253781856116</v>
+        <v>0.2043253781856117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1943496347582044</v>
+        <v>0.1942865786973302</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2142598840335228</v>
+        <v>0.2141091715098374</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2771031</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2718188</v>
+        <v>2718945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2824228</v>
+        <v>2822188</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7959794549138293</v>
+        <v>0.7959794549138294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7808005047334989</v>
+        <v>0.7810178971173574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8112603682825911</v>
+        <v>0.8106745493062968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4172</v>
@@ -1701,19 +1701,19 @@
         <v>2937110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2891805</v>
+        <v>2894660</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2979285</v>
+        <v>2981044</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7953872394436312</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7831185446922945</v>
+        <v>0.7838915943405617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8068086587115998</v>
+        <v>0.8072848086524466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6840</v>
@@ -1722,19 +1722,19 @@
         <v>5708140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5636871</v>
+        <v>5637952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5779706</v>
+        <v>5780158</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7956746218143884</v>
+        <v>0.7956746218143885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7857401159664776</v>
+        <v>0.7858908284901625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8056503652417958</v>
+        <v>0.8057134213026698</v>
       </c>
     </row>
     <row r="18">
